--- a/September/Others/Price List Update_01.09.19.xlsx
+++ b/September/Others/Price List Update_01.09.19.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="93">
   <si>
     <t xml:space="preserve">Model </t>
   </si>
@@ -334,10 +334,22 @@
     <t xml:space="preserve">          +8801715-116767</t>
   </si>
   <si>
-    <t>Date:  05.09.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">     Tulip-2           </t>
+  </si>
+  <si>
+    <t>L42</t>
+  </si>
+  <si>
+    <t>S40</t>
+  </si>
+  <si>
+    <t>L130</t>
+  </si>
+  <si>
+    <t>V99</t>
+  </si>
+  <si>
+    <t>Date:  10.09.19</t>
   </si>
 </sst>
 </file>
@@ -650,19 +662,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,39 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +719,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1081,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2169,7 +2181,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2615,7 +2627,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2686,7 +2698,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2760,7 +2772,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2831,7 +2843,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3148,7 +3160,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4248,7 +4260,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4694,7 +4706,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4765,7 +4777,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4839,7 +4851,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4910,7 +4922,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -5314,48 +5326,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="18" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -5887,7 +5899,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="2">
@@ -6031,7 +6043,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="19" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="2">
@@ -6438,66 +6450,66 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="25">
         <v>1330</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="25">
         <v>1450</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="34" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="24"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="21"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="79" spans="9:10">
       <c r="I79" s="15"/>
@@ -6542,8 +6554,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6560,1189 +6572,1191 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" s="29" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25">
+      <c r="A2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25">
+      <c r="A3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34">
+        <v>800</v>
+      </c>
+      <c r="C5" s="34">
+        <v>875</v>
+      </c>
+      <c r="D5" s="35">
+        <v>10</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="34">
+        <v>1330</v>
+      </c>
+      <c r="H5" s="34">
+        <v>1450</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="34">
+        <v>780</v>
+      </c>
+      <c r="C6" s="34">
+        <v>840</v>
+      </c>
+      <c r="D6" s="35">
+        <v>10</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="34">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="34">
+        <v>1299</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="34">
+        <v>810</v>
+      </c>
+      <c r="C7" s="34">
+        <v>880</v>
+      </c>
+      <c r="D7" s="35">
+        <v>10</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34">
+        <v>800</v>
+      </c>
+      <c r="C8" s="34">
+        <v>870</v>
+      </c>
+      <c r="D8" s="35">
+        <v>10</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="34">
+        <v>1250</v>
+      </c>
+      <c r="H8" s="34">
+        <v>1350</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="34">
+        <v>790</v>
+      </c>
+      <c r="C9" s="34">
+        <v>850</v>
+      </c>
+      <c r="D9" s="35">
+        <v>10</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="34">
+        <v>1370</v>
+      </c>
+      <c r="H9" s="34">
+        <v>1490</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34">
+        <v>790</v>
+      </c>
+      <c r="C10" s="34">
+        <v>860</v>
+      </c>
+      <c r="D10" s="35">
+        <v>10</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="34">
+        <v>2780</v>
+      </c>
+      <c r="H10" s="34">
+        <v>2990</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="34">
+        <v>800</v>
+      </c>
+      <c r="C11" s="34">
+        <v>860</v>
+      </c>
+      <c r="D11" s="35">
+        <v>10</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="34">
+        <v>6540</v>
+      </c>
+      <c r="H11" s="34">
+        <v>6990</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34">
+        <v>970</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1060</v>
+      </c>
+      <c r="D12" s="35">
+        <v>10</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="34">
+        <v>5290</v>
+      </c>
+      <c r="H12" s="34">
+        <v>5690</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="34">
+        <v>900</v>
+      </c>
+      <c r="C13" s="34">
+        <v>975</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="34">
+        <v>5470</v>
+      </c>
+      <c r="H13" s="34">
+        <v>5890</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="34">
+        <v>915</v>
+      </c>
+      <c r="C14" s="34">
+        <v>990</v>
+      </c>
+      <c r="D14" s="35">
+        <v>10</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="34">
+        <v>5750</v>
+      </c>
+      <c r="H14" s="34">
+        <v>6190</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="34">
+        <v>790</v>
+      </c>
+      <c r="C15" s="34">
+        <v>850</v>
+      </c>
+      <c r="D15" s="35">
+        <v>10</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="34">
+        <v>5940</v>
+      </c>
+      <c r="H15" s="34">
+        <v>6390</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="34">
+        <v>910</v>
+      </c>
+      <c r="C16" s="34">
+        <v>980</v>
+      </c>
+      <c r="D16" s="35">
+        <v>10</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="34">
+        <v>6530</v>
+      </c>
+      <c r="H16" s="34">
+        <v>6990</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="34">
+        <v>890</v>
+      </c>
+      <c r="C17" s="34">
+        <v>970</v>
+      </c>
+      <c r="D17" s="35">
+        <v>10</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="34">
+        <v>6890</v>
+      </c>
+      <c r="H17" s="34">
+        <v>7490</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="34">
+        <v>920</v>
+      </c>
+      <c r="C18" s="34">
+        <v>999</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="34">
+        <v>8340</v>
+      </c>
+      <c r="H18" s="34">
+        <v>8990</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="34">
+        <v>880</v>
+      </c>
+      <c r="C19" s="34">
+        <v>950</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="34">
+        <v>9190</v>
+      </c>
+      <c r="H19" s="34">
+        <v>9990</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="34">
+        <v>845</v>
+      </c>
+      <c r="C20" s="34">
+        <v>910</v>
+      </c>
+      <c r="D20" s="35">
+        <v>20</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="34">
+        <v>5750</v>
+      </c>
+      <c r="H20" s="34">
+        <v>6190</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="34">
+        <v>1090</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="34">
+        <v>995</v>
+      </c>
+      <c r="C22" s="34">
+        <v>1075</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="34">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="34">
+        <v>1190</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="34">
+        <v>880</v>
+      </c>
+      <c r="C23" s="34">
+        <v>950</v>
+      </c>
+      <c r="D23" s="35">
+        <v>20</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="34">
+        <v>4280</v>
+      </c>
+      <c r="H23" s="34">
+        <v>4590</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="34">
+        <v>900</v>
+      </c>
+      <c r="C24" s="34">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="35">
+        <v>10</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="34">
+        <v>5020</v>
+      </c>
+      <c r="H24" s="34">
+        <v>5390</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1040</v>
+      </c>
+      <c r="C25" s="34">
+        <v>1120</v>
+      </c>
+      <c r="D25" s="35">
+        <v>20</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="34">
+        <v>5280</v>
+      </c>
+      <c r="H25" s="34">
+        <v>5690</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="34">
+        <v>930</v>
+      </c>
+      <c r="C26" s="34">
+        <v>999</v>
+      </c>
+      <c r="D26" s="35">
+        <v>10</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="34">
+        <v>4550</v>
+      </c>
+      <c r="H26" s="34">
+        <v>4890</v>
+      </c>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="34">
+        <v>1290</v>
+      </c>
+      <c r="C27" s="34">
+        <v>1390</v>
+      </c>
+      <c r="D27" s="35">
+        <v>10</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="34">
+        <v>5100</v>
+      </c>
+      <c r="H27" s="34">
+        <v>5490</v>
+      </c>
+      <c r="I27" s="35">
+        <v>70</v>
+      </c>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="34">
+        <v>1190</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1290</v>
+      </c>
+      <c r="D28" s="35">
+        <v>10</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="34">
+        <v>5560</v>
+      </c>
+      <c r="H28" s="34">
+        <v>5990</v>
+      </c>
+      <c r="I28" s="35">
+        <v>200</v>
+      </c>
+      <c r="J28" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="34">
+        <v>1270</v>
+      </c>
+      <c r="C29" s="34">
+        <v>1370</v>
+      </c>
+      <c r="D29" s="38">
+        <v>10</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="F29" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="34">
+        <v>6090</v>
+      </c>
+      <c r="H29" s="34">
+        <v>6590</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="34">
+        <v>1170</v>
+      </c>
+      <c r="C30" s="34">
+        <v>1270</v>
+      </c>
+      <c r="D30" s="35">
+        <v>10</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="34">
+        <v>5390</v>
+      </c>
+      <c r="H30" s="34">
+        <v>5790</v>
+      </c>
+      <c r="I30" s="35">
+        <v>200</v>
+      </c>
+      <c r="J30" s="35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="34">
+        <v>1190</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1290</v>
+      </c>
+      <c r="D31" s="35">
+        <v>10</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="34">
+        <v>3630</v>
+      </c>
+      <c r="H31" s="34">
+        <v>3890</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="34">
+        <v>1225</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1325</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="34">
+        <v>3560</v>
+      </c>
+      <c r="H32" s="34">
+        <v>3840</v>
+      </c>
+      <c r="I32" s="35">
+        <v>400</v>
+      </c>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="34">
+        <v>1220</v>
+      </c>
+      <c r="C33" s="34">
+        <v>1320</v>
+      </c>
+      <c r="D33" s="35">
+        <v>20</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="34">
+        <v>3340</v>
+      </c>
+      <c r="H33" s="34">
+        <v>3590</v>
+      </c>
+      <c r="I33" s="35">
+        <v>320</v>
+      </c>
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="34">
+        <v>1080</v>
+      </c>
+      <c r="C34" s="34">
+        <v>1160</v>
+      </c>
+      <c r="D34" s="35">
+        <v>10</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="34">
+        <v>5390</v>
+      </c>
+      <c r="H34" s="34">
+        <v>5790</v>
+      </c>
+      <c r="I34" s="38"/>
+      <c r="J34" s="35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1100</v>
+      </c>
+      <c r="C35" s="34">
+        <v>1199</v>
+      </c>
+      <c r="D35" s="38">
+        <v>20</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="34">
+        <v>4500</v>
+      </c>
+      <c r="H35" s="34">
+        <v>4790</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="34">
+        <v>1200</v>
+      </c>
+      <c r="C36" s="34">
+        <v>1290</v>
+      </c>
+      <c r="D36" s="35">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="34">
+        <v>4970</v>
+      </c>
+      <c r="H36" s="34">
+        <v>5290</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="34">
+        <v>1010</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1110</v>
+      </c>
+      <c r="D37" s="35">
+        <v>20</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="34">
+        <v>4015</v>
+      </c>
+      <c r="H37" s="34">
+        <v>4390</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="34">
+        <v>1040</v>
+      </c>
+      <c r="C38" s="34">
+        <v>1130</v>
+      </c>
+      <c r="D38" s="35">
+        <v>20</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="34">
+        <v>3710</v>
+      </c>
+      <c r="H38" s="34">
+        <v>3990</v>
+      </c>
+      <c r="I38" s="35">
+        <v>200</v>
+      </c>
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.25">
-      <c r="A2" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" ht="17.25">
-      <c r="A3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48">
-        <v>800</v>
-      </c>
-      <c r="C5" s="48">
-        <v>875</v>
-      </c>
-      <c r="D5" s="49">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="34">
+        <v>3620</v>
+      </c>
+      <c r="H39" s="34">
+        <v>3890</v>
+      </c>
+      <c r="I39" s="35">
+        <v>320</v>
+      </c>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="34">
+        <v>1100</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1199</v>
+      </c>
+      <c r="D40" s="35">
+        <v>20</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="34">
+        <v>4080</v>
+      </c>
+      <c r="H40" s="34">
+        <v>4390</v>
+      </c>
+      <c r="I40" s="35">
+        <v>200</v>
+      </c>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="34">
+        <v>1100</v>
+      </c>
+      <c r="C41" s="34">
+        <v>1199</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="34">
+        <v>4220</v>
+      </c>
+      <c r="H41" s="34">
+        <v>4540</v>
+      </c>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="34">
+        <v>1050</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1130</v>
+      </c>
+      <c r="D42" s="35">
+        <v>15</v>
+      </c>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="34">
+        <v>1130</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1230</v>
+      </c>
+      <c r="D43" s="35">
         <v>10</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="48">
-        <v>1200</v>
-      </c>
-      <c r="H5" s="48">
-        <v>1299</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="48">
-        <v>780</v>
-      </c>
-      <c r="C6" s="48">
-        <v>840</v>
-      </c>
-      <c r="D6" s="49">
+      <c r="E43" s="35"/>
+      <c r="F43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="34">
+        <v>12490</v>
+      </c>
+      <c r="H43" s="34">
+        <v>13490</v>
+      </c>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="34">
+        <v>1100</v>
+      </c>
+      <c r="C44" s="34">
+        <v>1190</v>
+      </c>
+      <c r="D44" s="35">
         <v>10</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="48">
-        <v>1250</v>
-      </c>
-      <c r="H6" s="48">
-        <v>1350</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="48">
-        <v>810</v>
-      </c>
-      <c r="C7" s="48">
-        <v>880</v>
-      </c>
-      <c r="D7" s="49">
-        <v>10</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="48">
-        <v>1370</v>
-      </c>
-      <c r="H7" s="48">
-        <v>1490</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="48">
-        <v>800</v>
-      </c>
-      <c r="C8" s="48">
-        <v>870</v>
-      </c>
-      <c r="D8" s="49">
-        <v>10</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="48">
-        <v>2780</v>
-      </c>
-      <c r="H8" s="48">
-        <v>2990</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="48">
-        <v>790</v>
-      </c>
-      <c r="C9" s="48">
-        <v>850</v>
-      </c>
-      <c r="D9" s="49">
-        <v>10</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="48">
-        <v>6540</v>
-      </c>
-      <c r="H9" s="48">
-        <v>6990</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="48">
-        <v>790</v>
-      </c>
-      <c r="C10" s="48">
-        <v>860</v>
-      </c>
-      <c r="D10" s="49">
-        <v>10</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="48">
-        <v>5290</v>
-      </c>
-      <c r="H10" s="48">
-        <v>5690</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="48">
-        <v>800</v>
-      </c>
-      <c r="C11" s="48">
-        <v>860</v>
-      </c>
-      <c r="D11" s="49">
-        <v>10</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="48">
-        <v>5470</v>
-      </c>
-      <c r="H11" s="48">
-        <v>5890</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="48">
-        <v>970</v>
-      </c>
-      <c r="C12" s="48">
-        <v>1060</v>
-      </c>
-      <c r="D12" s="49">
-        <v>10</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="48">
-        <v>5750</v>
-      </c>
-      <c r="H12" s="48">
-        <v>6190</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="48">
-        <v>900</v>
-      </c>
-      <c r="C13" s="48">
-        <v>975</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="48">
-        <v>5940</v>
-      </c>
-      <c r="H13" s="48">
-        <v>6390</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="48">
-        <v>915</v>
-      </c>
-      <c r="C14" s="48">
-        <v>990</v>
-      </c>
-      <c r="D14" s="49">
-        <v>10</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="48">
-        <v>6530</v>
-      </c>
-      <c r="H14" s="48">
-        <v>6990</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="48">
-        <v>790</v>
-      </c>
-      <c r="C15" s="48">
-        <v>850</v>
-      </c>
-      <c r="D15" s="49">
-        <v>10</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="48">
-        <v>6890</v>
-      </c>
-      <c r="H15" s="48">
-        <v>7490</v>
-      </c>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="48">
-        <v>910</v>
-      </c>
-      <c r="C16" s="48">
-        <v>980</v>
-      </c>
-      <c r="D16" s="49">
-        <v>10</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="48">
-        <v>8340</v>
-      </c>
-      <c r="H16" s="48">
-        <v>8990</v>
-      </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="48">
-        <v>890</v>
-      </c>
-      <c r="C17" s="48">
-        <v>970</v>
-      </c>
-      <c r="D17" s="49">
-        <v>10</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="48">
-        <v>9190</v>
-      </c>
-      <c r="H17" s="48">
-        <v>9990</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="48">
-        <v>920</v>
-      </c>
-      <c r="C18" s="48">
-        <v>999</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="48">
-        <v>5750</v>
-      </c>
-      <c r="H18" s="48">
-        <v>6190</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="48">
-        <v>880</v>
-      </c>
-      <c r="C19" s="48">
-        <v>950</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="48">
-        <v>1100</v>
-      </c>
-      <c r="H19" s="48">
-        <v>1190</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="48">
-        <v>845</v>
-      </c>
-      <c r="C20" s="48">
-        <v>910</v>
-      </c>
-      <c r="D20" s="49">
-        <v>20</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="48">
-        <v>4280</v>
-      </c>
-      <c r="H20" s="48">
-        <v>4590</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="48">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="48">
-        <v>1090</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="48">
-        <v>5020</v>
-      </c>
-      <c r="H21" s="48">
-        <v>5390</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="48">
-        <v>995</v>
-      </c>
-      <c r="C22" s="48">
-        <v>1075</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="48">
-        <v>5280</v>
-      </c>
-      <c r="H22" s="48">
-        <v>5690</v>
-      </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="48">
-        <v>880</v>
-      </c>
-      <c r="C23" s="48">
-        <v>950</v>
-      </c>
-      <c r="D23" s="49">
-        <v>20</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="48">
-        <v>4550</v>
-      </c>
-      <c r="H23" s="48">
-        <v>4890</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="48">
-        <v>900</v>
-      </c>
-      <c r="C24" s="48">
-        <v>1000</v>
-      </c>
-      <c r="D24" s="49">
-        <v>10</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="48">
-        <v>5100</v>
-      </c>
-      <c r="H24" s="48">
-        <v>5490</v>
-      </c>
-      <c r="I24" s="49">
-        <v>70</v>
-      </c>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="48">
-        <v>1040</v>
-      </c>
-      <c r="C25" s="48">
-        <v>1120</v>
-      </c>
-      <c r="D25" s="49">
-        <v>20</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="48">
-        <v>5560</v>
-      </c>
-      <c r="H25" s="48">
-        <v>5990</v>
-      </c>
-      <c r="I25" s="49">
-        <v>200</v>
-      </c>
-      <c r="J25" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="48">
-        <v>930</v>
-      </c>
-      <c r="C26" s="48">
-        <v>999</v>
-      </c>
-      <c r="D26" s="49">
-        <v>10</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="48">
-        <v>6090</v>
-      </c>
-      <c r="H26" s="48">
-        <v>6590</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="48">
-        <v>1290</v>
-      </c>
-      <c r="C27" s="48">
-        <v>1390</v>
-      </c>
-      <c r="D27" s="49">
-        <v>10</v>
-      </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="48">
-        <v>5390</v>
-      </c>
-      <c r="H27" s="48">
-        <v>5790</v>
-      </c>
-      <c r="I27" s="49">
-        <v>200</v>
-      </c>
-      <c r="J27" s="49">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="48">
-        <v>1190</v>
-      </c>
-      <c r="C28" s="48">
-        <v>1290</v>
-      </c>
-      <c r="D28" s="49">
-        <v>10</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="48">
-        <v>3630</v>
-      </c>
-      <c r="H28" s="48">
-        <v>3890</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-    </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="48">
-        <v>1270</v>
-      </c>
-      <c r="C29" s="48">
-        <v>1370</v>
-      </c>
-      <c r="D29" s="52">
-        <v>10</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="48">
-        <v>3560</v>
-      </c>
-      <c r="H29" s="48">
-        <v>3840</v>
-      </c>
-      <c r="I29" s="49">
-        <v>400</v>
-      </c>
-      <c r="J29" s="49"/>
-    </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="48">
-        <v>1170</v>
-      </c>
-      <c r="C30" s="48">
-        <v>1270</v>
-      </c>
-      <c r="D30" s="49">
-        <v>10</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="48">
-        <v>3340</v>
-      </c>
-      <c r="H30" s="48">
-        <v>3590</v>
-      </c>
-      <c r="I30" s="49">
-        <v>320</v>
-      </c>
-      <c r="J30" s="49"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="48">
-        <v>1190</v>
-      </c>
-      <c r="C31" s="48">
-        <v>1290</v>
-      </c>
-      <c r="D31" s="49">
-        <v>10</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="48">
-        <v>5390</v>
-      </c>
-      <c r="H31" s="48">
-        <v>5790</v>
-      </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="48">
-        <v>1225</v>
-      </c>
-      <c r="C32" s="48">
-        <v>1325</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="48">
-        <v>4500</v>
-      </c>
-      <c r="H32" s="48">
-        <v>4790</v>
-      </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="48">
-        <v>1220</v>
-      </c>
-      <c r="C33" s="48">
-        <v>1320</v>
-      </c>
-      <c r="D33" s="49">
-        <v>20</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="48">
-        <v>4970</v>
-      </c>
-      <c r="H33" s="48">
-        <v>5290</v>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="48">
-        <v>1080</v>
-      </c>
-      <c r="C34" s="48">
-        <v>1160</v>
-      </c>
-      <c r="D34" s="49">
-        <v>10</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="48">
-        <v>4015</v>
-      </c>
-      <c r="H34" s="48">
-        <v>4390</v>
-      </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="49"/>
-    </row>
-    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="48">
-        <v>1100</v>
-      </c>
-      <c r="C35" s="48">
-        <v>1199</v>
-      </c>
-      <c r="D35" s="52">
-        <v>20</v>
-      </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="48">
-        <v>3710</v>
-      </c>
-      <c r="H35" s="48">
-        <v>3990</v>
-      </c>
-      <c r="I35" s="49">
-        <v>200</v>
-      </c>
-      <c r="J35" s="49"/>
-    </row>
-    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="48">
-        <v>1200</v>
-      </c>
-      <c r="C36" s="48">
-        <v>1290</v>
-      </c>
-      <c r="D36" s="49">
-        <v>20</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="48">
-        <v>3620</v>
-      </c>
-      <c r="H36" s="48">
-        <v>3890</v>
-      </c>
-      <c r="I36" s="49">
-        <v>320</v>
-      </c>
-      <c r="J36" s="49"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="48">
-        <v>1010</v>
-      </c>
-      <c r="C37" s="48">
-        <v>1110</v>
-      </c>
-      <c r="D37" s="49">
-        <v>20</v>
-      </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="48">
-        <v>4080</v>
-      </c>
-      <c r="H37" s="48">
-        <v>4390</v>
-      </c>
-      <c r="I37" s="49">
-        <v>200</v>
-      </c>
-      <c r="J37" s="49"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="48">
-        <v>1040</v>
-      </c>
-      <c r="C38" s="48">
-        <v>1130</v>
-      </c>
-      <c r="D38" s="49">
-        <v>20</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="48">
-        <v>4220</v>
-      </c>
-      <c r="H38" s="48">
-        <v>4540</v>
-      </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="48">
-        <v>1100</v>
-      </c>
-      <c r="C39" s="48">
-        <v>1199</v>
-      </c>
-      <c r="D39" s="49">
-        <v>20</v>
-      </c>
-      <c r="E39" s="49"/>
-      <c r="F39" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="48">
-        <v>12490</v>
-      </c>
-      <c r="H39" s="48">
-        <v>13490</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="48">
-        <v>1100</v>
-      </c>
-      <c r="C40" s="48">
-        <v>1199</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="50" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G44" s="38">
         <v>8820</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H44" s="38">
         <v>9490</v>
       </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-    </row>
-    <row r="41" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="48">
-        <v>1050</v>
-      </c>
-      <c r="C41" s="48">
-        <v>1130</v>
-      </c>
-      <c r="D41" s="49">
-        <v>15</v>
-      </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="48">
-        <v>8820</v>
-      </c>
-      <c r="H41" s="48">
-        <v>9490</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-    </row>
-    <row r="42" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="48">
-        <v>1130</v>
-      </c>
-      <c r="C42" s="48">
-        <v>1230</v>
-      </c>
-      <c r="D42" s="49">
-        <v>10</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-    </row>
-    <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="48">
-        <v>1100</v>
-      </c>
-      <c r="C43" s="48">
-        <v>1190</v>
-      </c>
-      <c r="D43" s="49">
-        <v>10</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-    </row>
-    <row r="44" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="48">
-        <v>1330</v>
-      </c>
-      <c r="C44" s="48">
-        <v>1450</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="34" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I46" s="33"/>
-      <c r="J46" s="36"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/September/Others/Price List Update_01.09.19.xlsx
+++ b/September/Others/Price List Update_01.09.19.xlsx
@@ -1081,7 +1081,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2181,7 +2181,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2627,7 +2627,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2698,7 +2698,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2772,7 +2772,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2843,7 +2843,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3160,7 +3160,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4260,7 +4260,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4706,7 +4706,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4777,7 +4777,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4851,7 +4851,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -4922,7 +4922,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6554,7 +6554,7 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J47"/>
     </sheetView>
   </sheetViews>
